--- a/SM Table 2.xlsx
+++ b/SM Table 2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ad26693/Development/Repos/annual-reviews/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94C08306-F28C-C04F-87E2-C5A78EE0DB2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D87BD6B-0662-6A48-9817-CE7F26DE24A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11080" yWindow="-18880" windowWidth="29580" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="660" yWindow="760" windowWidth="29580" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1131" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1046" uniqueCount="204">
   <si>
     <t>Order</t>
   </si>
@@ -656,30 +656,6 @@
     <t>Outgroup 5 state</t>
   </si>
   <si>
-    <t>Monogamous</t>
-  </si>
-  <si>
-    <t>DD</t>
-  </si>
-  <si>
-    <t>Polygynous</t>
-  </si>
-  <si>
-    <t>Discrete</t>
-  </si>
-  <si>
-    <t>Polygynous/Monogamous</t>
-  </si>
-  <si>
-    <t>Polygynandrous</t>
-  </si>
-  <si>
-    <t>Overlap</t>
-  </si>
-  <si>
-    <t>Polygynandrous/Monogamous</t>
-  </si>
-  <si>
     <t>Lepilemur randrianasoloi</t>
   </si>
   <si>
@@ -699,12 +675,6 @@
   </si>
   <si>
     <t>Müller &amp; Thalmann (2000) 5 state</t>
-  </si>
-  <si>
-    <t>Opie et al 3 (2013) state MATING</t>
-  </si>
-  <si>
-    <t>Opie et al (2013) FEM OVERLAP</t>
   </si>
 </sst>
 </file>
@@ -996,10 +966,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Q126"/>
+  <dimension ref="A1:O126"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L118" sqref="L118"/>
+      <selection activeCell="P1" sqref="P1:Q1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1016,12 +986,10 @@
     <col min="12" max="13" width="12.6640625" style="4"/>
     <col min="14" max="14" width="15.33203125" style="1" customWidth="1"/>
     <col min="15" max="15" width="78.33203125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="25.33203125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="19.83203125" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="12.6640625" style="1"/>
+    <col min="16" max="16384" width="12.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="68" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" ht="68" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1038,22 +1006,22 @@
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>195</v>
@@ -1067,14 +1035,8 @@
       <c r="O1" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="P1" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -1108,14 +1070,8 @@
         <v>184</v>
       </c>
       <c r="O2" s="3"/>
-      <c r="P2" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="Q2" s="4" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -1145,14 +1101,8 @@
         <v>185</v>
       </c>
       <c r="O3" s="3"/>
-      <c r="P3" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="Q3" s="4" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -1184,14 +1134,8 @@
         <v>185</v>
       </c>
       <c r="O4" s="3"/>
-      <c r="P4" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="Q4" s="4" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -1219,10 +1163,8 @@
         <v>183</v>
       </c>
       <c r="O5" s="3"/>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="4"/>
-    </row>
-    <row r="6" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -1250,10 +1192,8 @@
         <v>183</v>
       </c>
       <c r="O6" s="3"/>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="4"/>
-    </row>
-    <row r="7" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -1287,14 +1227,8 @@
         <v>185</v>
       </c>
       <c r="O7" s="3"/>
-      <c r="P7" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="Q7" s="4" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
@@ -1324,10 +1258,8 @@
         <v>185</v>
       </c>
       <c r="O8" s="3"/>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="4"/>
-    </row>
-    <row r="9" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
@@ -1361,14 +1293,8 @@
         <v>185</v>
       </c>
       <c r="O9" s="3"/>
-      <c r="P9" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="Q9" s="4" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>5</v>
       </c>
@@ -1396,10 +1322,8 @@
         <v>183</v>
       </c>
       <c r="O10" s="3"/>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="4"/>
-    </row>
-    <row r="11" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>5</v>
       </c>
@@ -1427,10 +1351,8 @@
         <v>183</v>
       </c>
       <c r="O11" s="3"/>
-      <c r="P11" s="4"/>
-      <c r="Q11" s="4"/>
-    </row>
-    <row r="12" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>5</v>
       </c>
@@ -1460,10 +1382,8 @@
         <v>185</v>
       </c>
       <c r="O12" s="3"/>
-      <c r="P12" s="4"/>
-      <c r="Q12" s="4"/>
-    </row>
-    <row r="13" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>5</v>
       </c>
@@ -1491,10 +1411,8 @@
         <v>183</v>
       </c>
       <c r="O13" s="3"/>
-      <c r="P13" s="4"/>
-      <c r="Q13" s="4"/>
-    </row>
-    <row r="14" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>5</v>
       </c>
@@ -1524,14 +1442,8 @@
         <v>184</v>
       </c>
       <c r="O14" s="3"/>
-      <c r="P14" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="Q14" s="4" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>5</v>
       </c>
@@ -1565,14 +1477,8 @@
         <v>184</v>
       </c>
       <c r="O15" s="3"/>
-      <c r="P15" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="Q15" s="4" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>5</v>
       </c>
@@ -1610,14 +1516,8 @@
         <v>184</v>
       </c>
       <c r="O16" s="3"/>
-      <c r="P16" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="Q16" s="4" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>5</v>
       </c>
@@ -1645,10 +1545,8 @@
         <v>183</v>
       </c>
       <c r="O17" s="3"/>
-      <c r="P17" s="4"/>
-      <c r="Q17" s="4"/>
-    </row>
-    <row r="18" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>5</v>
       </c>
@@ -1676,10 +1574,8 @@
         <v>183</v>
       </c>
       <c r="O18" s="3"/>
-      <c r="P18" s="4"/>
-      <c r="Q18" s="4"/>
-    </row>
-    <row r="19" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>5</v>
       </c>
@@ -1709,10 +1605,8 @@
         <v>184</v>
       </c>
       <c r="O19" s="3"/>
-      <c r="P19" s="4"/>
-      <c r="Q19" s="4"/>
-    </row>
-    <row r="20" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>5</v>
       </c>
@@ -1750,14 +1644,8 @@
         <v>184</v>
       </c>
       <c r="O20" s="3"/>
-      <c r="P20" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="Q20" s="4" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>5</v>
       </c>
@@ -1789,14 +1677,8 @@
         <v>184</v>
       </c>
       <c r="O21" s="3"/>
-      <c r="P21" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="Q21" s="4" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>5</v>
       </c>
@@ -1824,10 +1706,8 @@
         <v>183</v>
       </c>
       <c r="O22" s="3"/>
-      <c r="P22" s="4"/>
-      <c r="Q22" s="4"/>
-    </row>
-    <row r="23" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>5</v>
       </c>
@@ -1863,14 +1743,8 @@
         <v>184</v>
       </c>
       <c r="O23" s="3"/>
-      <c r="P23" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="Q23" s="4" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>5</v>
       </c>
@@ -1898,10 +1772,8 @@
         <v>183</v>
       </c>
       <c r="O24" s="3"/>
-      <c r="P24" s="4"/>
-      <c r="Q24" s="4"/>
-    </row>
-    <row r="25" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>5</v>
       </c>
@@ -1931,10 +1803,8 @@
         <v>185</v>
       </c>
       <c r="O25" s="3"/>
-      <c r="P25" s="4"/>
-      <c r="Q25" s="4"/>
-    </row>
-    <row r="26" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>5</v>
       </c>
@@ -1966,14 +1836,8 @@
         <v>185</v>
       </c>
       <c r="O26" s="3"/>
-      <c r="P26" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="Q26" s="4" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>5</v>
       </c>
@@ -2003,10 +1867,8 @@
         <v>185</v>
       </c>
       <c r="O27" s="3"/>
-      <c r="P27" s="4"/>
-      <c r="Q27" s="4"/>
-    </row>
-    <row r="28" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>5</v>
       </c>
@@ -2036,10 +1898,8 @@
         <v>185</v>
       </c>
       <c r="O28" s="3"/>
-      <c r="P28" s="4"/>
-      <c r="Q28" s="4"/>
-    </row>
-    <row r="29" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>5</v>
       </c>
@@ -2075,14 +1935,8 @@
         <v>184</v>
       </c>
       <c r="O29" s="3"/>
-      <c r="P29" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="Q29" s="4" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>5</v>
       </c>
@@ -2110,10 +1964,8 @@
         <v>183</v>
       </c>
       <c r="O30" s="3"/>
-      <c r="P30" s="4"/>
-      <c r="Q30" s="4"/>
-    </row>
-    <row r="31" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="31" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>5</v>
       </c>
@@ -2143,10 +1995,8 @@
         <v>185</v>
       </c>
       <c r="O31" s="3"/>
-      <c r="P31" s="4"/>
-      <c r="Q31" s="4"/>
-    </row>
-    <row r="32" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>5</v>
       </c>
@@ -2174,10 +2024,8 @@
         <v>183</v>
       </c>
       <c r="O32" s="3"/>
-      <c r="P32" s="4"/>
-      <c r="Q32" s="4"/>
-    </row>
-    <row r="33" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="33" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>5</v>
       </c>
@@ -2209,14 +2057,8 @@
         <v>184</v>
       </c>
       <c r="O33" s="3"/>
-      <c r="P33" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="Q33" s="4" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>5</v>
       </c>
@@ -2246,10 +2088,8 @@
         <v>185</v>
       </c>
       <c r="O34" s="3"/>
-      <c r="P34" s="4"/>
-      <c r="Q34" s="4"/>
-    </row>
-    <row r="35" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="35" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>5</v>
       </c>
@@ -2287,14 +2127,8 @@
       <c r="O35" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="P35" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="Q35" s="4" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="36" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>5</v>
       </c>
@@ -2334,14 +2168,8 @@
       <c r="O36" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="P36" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="Q36" s="4" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="37" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>5</v>
       </c>
@@ -2371,12 +2199,8 @@
         <v>185</v>
       </c>
       <c r="O37" s="3"/>
-      <c r="P37" s="4"/>
-      <c r="Q37" s="4" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="38" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>5</v>
       </c>
@@ -2404,10 +2228,8 @@
         <v>183</v>
       </c>
       <c r="O38" s="3"/>
-      <c r="P38" s="4"/>
-      <c r="Q38" s="4"/>
-    </row>
-    <row r="39" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="39" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>5</v>
       </c>
@@ -2439,12 +2261,8 @@
         <v>185</v>
       </c>
       <c r="O39" s="3"/>
-      <c r="P39" s="4"/>
-      <c r="Q39" s="4" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="40" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>5</v>
       </c>
@@ -2472,10 +2290,8 @@
         <v>183</v>
       </c>
       <c r="O40" s="3"/>
-      <c r="P40" s="4"/>
-      <c r="Q40" s="4"/>
-    </row>
-    <row r="41" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="41" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>5</v>
       </c>
@@ -2507,14 +2323,8 @@
         <v>185</v>
       </c>
       <c r="O41" s="3"/>
-      <c r="P41" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="Q41" s="4" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="42" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>5</v>
       </c>
@@ -2552,14 +2362,8 @@
         <v>184</v>
       </c>
       <c r="O42" s="3"/>
-      <c r="P42" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="Q42" s="4" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="43" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>5</v>
       </c>
@@ -2587,10 +2391,8 @@
         <v>183</v>
       </c>
       <c r="O43" s="3"/>
-      <c r="P43" s="4"/>
-      <c r="Q43" s="4"/>
-    </row>
-    <row r="44" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="44" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>5</v>
       </c>
@@ -2618,10 +2420,8 @@
         <v>183</v>
       </c>
       <c r="O44" s="3"/>
-      <c r="P44" s="4"/>
-      <c r="Q44" s="4"/>
-    </row>
-    <row r="45" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="45" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>5</v>
       </c>
@@ -2649,10 +2449,8 @@
         <v>183</v>
       </c>
       <c r="O45" s="3"/>
-      <c r="P45" s="4"/>
-      <c r="Q45" s="4"/>
-    </row>
-    <row r="46" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="46" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>5</v>
       </c>
@@ -2680,10 +2478,8 @@
         <v>183</v>
       </c>
       <c r="O46" s="3"/>
-      <c r="P46" s="4"/>
-      <c r="Q46" s="4"/>
-    </row>
-    <row r="47" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="47" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>5</v>
       </c>
@@ -2723,14 +2519,8 @@
       <c r="O47" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="P47" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="Q47" s="4" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="48" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="48" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>5</v>
       </c>
@@ -2762,14 +2552,8 @@
         <v>185</v>
       </c>
       <c r="O48" s="3"/>
-      <c r="P48" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="Q48" s="4" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="49" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="49" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>5</v>
       </c>
@@ -2797,10 +2581,8 @@
         <v>185</v>
       </c>
       <c r="O49" s="3"/>
-      <c r="P49" s="4"/>
-      <c r="Q49" s="4"/>
-    </row>
-    <row r="50" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="50" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>5</v>
       </c>
@@ -2828,12 +2610,8 @@
         <v>183</v>
       </c>
       <c r="O50" s="3"/>
-      <c r="P50" s="4"/>
-      <c r="Q50" s="4" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="51" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="51" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>5</v>
       </c>
@@ -2861,10 +2639,8 @@
         <v>185</v>
       </c>
       <c r="O51" s="3"/>
-      <c r="P51" s="4"/>
-      <c r="Q51" s="4"/>
-    </row>
-    <row r="52" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="52" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>5</v>
       </c>
@@ -2898,14 +2674,8 @@
         <v>185</v>
       </c>
       <c r="O52" s="3"/>
-      <c r="P52" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="Q52" s="4" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="53" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="53" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>5</v>
       </c>
@@ -2933,10 +2703,8 @@
         <v>183</v>
       </c>
       <c r="O53" s="3"/>
-      <c r="P53" s="4"/>
-      <c r="Q53" s="4"/>
-    </row>
-    <row r="54" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="54" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>5</v>
       </c>
@@ -2964,15 +2732,13 @@
         <v>183</v>
       </c>
       <c r="O54" s="3"/>
-      <c r="P54" s="4"/>
-      <c r="Q54" s="4"/>
-    </row>
-    <row r="55" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="55" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>6</v>
@@ -2997,12 +2763,8 @@
         <v>185</v>
       </c>
       <c r="O55" s="3"/>
-      <c r="P55" s="4"/>
-      <c r="Q55" s="4" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="56" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="56" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>5</v>
       </c>
@@ -3042,14 +2804,8 @@
       <c r="O56" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="P56" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="Q56" s="4" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="57" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="57" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>5</v>
       </c>
@@ -3079,12 +2835,8 @@
         <v>185</v>
       </c>
       <c r="O57" s="3"/>
-      <c r="P57" s="4"/>
-      <c r="Q57" s="4" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="58" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="58" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>5</v>
       </c>
@@ -3114,12 +2866,8 @@
         <v>185</v>
       </c>
       <c r="O58" s="3"/>
-      <c r="P58" s="4"/>
-      <c r="Q58" s="4" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="59" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="59" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>5</v>
       </c>
@@ -3151,14 +2899,8 @@
         <v>185</v>
       </c>
       <c r="O59" s="3"/>
-      <c r="P59" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="Q59" s="4" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="60" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="60" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>5</v>
       </c>
@@ -3186,10 +2928,8 @@
         <v>183</v>
       </c>
       <c r="O60" s="3"/>
-      <c r="P60" s="4"/>
-      <c r="Q60" s="4"/>
-    </row>
-    <row r="61" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="61" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>5</v>
       </c>
@@ -3217,10 +2957,8 @@
         <v>183</v>
       </c>
       <c r="O61" s="3"/>
-      <c r="P61" s="4"/>
-      <c r="Q61" s="4"/>
-    </row>
-    <row r="62" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="62" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>5</v>
       </c>
@@ -3254,14 +2992,8 @@
         <v>184</v>
       </c>
       <c r="O62" s="3"/>
-      <c r="P62" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="Q62" s="4" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="63" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="63" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>5</v>
       </c>
@@ -3297,14 +3029,8 @@
         <v>184</v>
       </c>
       <c r="O63" s="3"/>
-      <c r="P63" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="Q63" s="4" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="64" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="64" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>5</v>
       </c>
@@ -3332,10 +3058,8 @@
         <v>183</v>
       </c>
       <c r="O64" s="3"/>
-      <c r="P64" s="4"/>
-      <c r="Q64" s="4"/>
-    </row>
-    <row r="65" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="65" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>5</v>
       </c>
@@ -3367,14 +3091,8 @@
       <c r="O65" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="P65" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="Q65" s="4" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="66" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="66" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>5</v>
       </c>
@@ -3402,10 +3120,8 @@
         <v>183</v>
       </c>
       <c r="O66" s="3"/>
-      <c r="P66" s="4"/>
-      <c r="Q66" s="4"/>
-    </row>
-    <row r="67" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="67" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>5</v>
       </c>
@@ -3433,10 +3149,8 @@
         <v>183</v>
       </c>
       <c r="O67" s="3"/>
-      <c r="P67" s="4"/>
-      <c r="Q67" s="4"/>
-    </row>
-    <row r="68" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="68" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>5</v>
       </c>
@@ -3464,10 +3178,8 @@
         <v>183</v>
       </c>
       <c r="O68" s="3"/>
-      <c r="P68" s="4"/>
-      <c r="Q68" s="4"/>
-    </row>
-    <row r="69" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="69" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>5</v>
       </c>
@@ -3497,12 +3209,8 @@
         <v>185</v>
       </c>
       <c r="O69" s="3"/>
-      <c r="P69" s="4"/>
-      <c r="Q69" s="4" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="70" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="70" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>5</v>
       </c>
@@ -3530,10 +3238,8 @@
         <v>183</v>
       </c>
       <c r="O70" s="3"/>
-      <c r="P70" s="4"/>
-      <c r="Q70" s="4"/>
-    </row>
-    <row r="71" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="71" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>5</v>
       </c>
@@ -3561,10 +3267,8 @@
         <v>183</v>
       </c>
       <c r="O71" s="3"/>
-      <c r="P71" s="4"/>
-      <c r="Q71" s="4"/>
-    </row>
-    <row r="72" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="72" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>5</v>
       </c>
@@ -3588,10 +3292,8 @@
       <c r="K72" s="4"/>
       <c r="N72" s="4"/>
       <c r="O72" s="3"/>
-      <c r="P72" s="4"/>
-      <c r="Q72" s="4"/>
-    </row>
-    <row r="73" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="73" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>5</v>
       </c>
@@ -3619,10 +3321,8 @@
         <v>183</v>
       </c>
       <c r="O73" s="3"/>
-      <c r="P73" s="4"/>
-      <c r="Q73" s="4"/>
-    </row>
-    <row r="74" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="74" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>5</v>
       </c>
@@ -3650,10 +3350,8 @@
         <v>183</v>
       </c>
       <c r="O74" s="3"/>
-      <c r="P74" s="4"/>
-      <c r="Q74" s="4"/>
-    </row>
-    <row r="75" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="75" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>5</v>
       </c>
@@ -3681,10 +3379,8 @@
         <v>183</v>
       </c>
       <c r="O75" s="3"/>
-      <c r="P75" s="4"/>
-      <c r="Q75" s="4"/>
-    </row>
-    <row r="76" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="76" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>5</v>
       </c>
@@ -3712,10 +3408,8 @@
         <v>183</v>
       </c>
       <c r="O76" s="3"/>
-      <c r="P76" s="4"/>
-      <c r="Q76" s="4"/>
-    </row>
-    <row r="77" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="77" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>5</v>
       </c>
@@ -3753,14 +3447,8 @@
         <v>184</v>
       </c>
       <c r="O77" s="3"/>
-      <c r="P77" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="Q77" s="4" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="78" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="78" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>5</v>
       </c>
@@ -3792,14 +3480,8 @@
         <v>185</v>
       </c>
       <c r="O78" s="3"/>
-      <c r="P78" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="Q78" s="4" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="79" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="79" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>5</v>
       </c>
@@ -3833,14 +3515,8 @@
         <v>184</v>
       </c>
       <c r="O79" s="3"/>
-      <c r="P79" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="Q79" s="4" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="80" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="80" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>5</v>
       </c>
@@ -3872,14 +3548,8 @@
         <v>185</v>
       </c>
       <c r="O80" s="3"/>
-      <c r="P80" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="Q80" s="4" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="81" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="81" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>5</v>
       </c>
@@ -3907,10 +3577,8 @@
         <v>183</v>
       </c>
       <c r="O81" s="3"/>
-      <c r="P81" s="4"/>
-      <c r="Q81" s="4"/>
-    </row>
-    <row r="82" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="82" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>5</v>
       </c>
@@ -3938,10 +3606,8 @@
         <v>183</v>
       </c>
       <c r="O82" s="3"/>
-      <c r="P82" s="4"/>
-      <c r="Q82" s="4"/>
-    </row>
-    <row r="83" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="83" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>5</v>
       </c>
@@ -3969,10 +3635,8 @@
         <v>183</v>
       </c>
       <c r="O83" s="3"/>
-      <c r="P83" s="4"/>
-      <c r="Q83" s="4"/>
-    </row>
-    <row r="84" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="84" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>5</v>
       </c>
@@ -4010,14 +3674,8 @@
         <v>184</v>
       </c>
       <c r="O84" s="3"/>
-      <c r="P84" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="Q84" s="4" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="85" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="85" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>5</v>
       </c>
@@ -4045,10 +3703,8 @@
         <v>183</v>
       </c>
       <c r="O85" s="3"/>
-      <c r="P85" s="4"/>
-      <c r="Q85" s="4"/>
-    </row>
-    <row r="86" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="86" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>5</v>
       </c>
@@ -4078,10 +3734,8 @@
         <v>185</v>
       </c>
       <c r="O86" s="3"/>
-      <c r="P86" s="4"/>
-      <c r="Q86" s="4"/>
-    </row>
-    <row r="87" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="87" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>5</v>
       </c>
@@ -4115,14 +3769,8 @@
         <v>185</v>
       </c>
       <c r="O87" s="3"/>
-      <c r="P87" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="Q87" s="4" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="88" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="88" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>5</v>
       </c>
@@ -4150,10 +3798,8 @@
         <v>183</v>
       </c>
       <c r="O88" s="3"/>
-      <c r="P88" s="4"/>
-      <c r="Q88" s="4"/>
-    </row>
-    <row r="89" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="89" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>5</v>
       </c>
@@ -4181,10 +3827,8 @@
         <v>183</v>
       </c>
       <c r="O89" s="3"/>
-      <c r="P89" s="4"/>
-      <c r="Q89" s="4"/>
-    </row>
-    <row r="90" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="90" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>5</v>
       </c>
@@ -4216,14 +3860,8 @@
         <v>185</v>
       </c>
       <c r="O90" s="3"/>
-      <c r="P90" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="Q90" s="4" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="91" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="91" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>5</v>
       </c>
@@ -4261,14 +3899,8 @@
         <v>184</v>
       </c>
       <c r="O91" s="3"/>
-      <c r="P91" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="Q91" s="4" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="92" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="92" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>5</v>
       </c>
@@ -4302,14 +3934,8 @@
         <v>185</v>
       </c>
       <c r="O92" s="3"/>
-      <c r="P92" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="Q92" s="4" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="93" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="93" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>5</v>
       </c>
@@ -4339,10 +3965,8 @@
         <v>185</v>
       </c>
       <c r="O93" s="3"/>
-      <c r="P93" s="4"/>
-      <c r="Q93" s="4"/>
-    </row>
-    <row r="94" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="94" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>5</v>
       </c>
@@ -4376,14 +4000,8 @@
         <v>185</v>
       </c>
       <c r="O94" s="3"/>
-      <c r="P94" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="Q94" s="4" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="95" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="95" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>5</v>
       </c>
@@ -4411,10 +4029,8 @@
         <v>183</v>
       </c>
       <c r="O95" s="3"/>
-      <c r="P95" s="4"/>
-      <c r="Q95" s="4"/>
-    </row>
-    <row r="96" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="96" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>5</v>
       </c>
@@ -4448,10 +4064,8 @@
         <v>185</v>
       </c>
       <c r="O96" s="3"/>
-      <c r="P96" s="4"/>
-      <c r="Q96" s="4"/>
-    </row>
-    <row r="97" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="97" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>5</v>
       </c>
@@ -4481,10 +4095,8 @@
         <v>184</v>
       </c>
       <c r="O97" s="3"/>
-      <c r="P97" s="4"/>
-      <c r="Q97" s="4"/>
-    </row>
-    <row r="98" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="98" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
         <v>5</v>
       </c>
@@ -4512,10 +4124,8 @@
         <v>183</v>
       </c>
       <c r="O98" s="3"/>
-      <c r="P98" s="4"/>
-      <c r="Q98" s="4"/>
-    </row>
-    <row r="99" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="99" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
         <v>5</v>
       </c>
@@ -4551,14 +4161,8 @@
       <c r="O99" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="P99" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="Q99" s="4" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="100" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="100" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
         <v>5</v>
       </c>
@@ -4588,10 +4192,8 @@
         <v>184</v>
       </c>
       <c r="O100" s="3"/>
-      <c r="P100" s="4"/>
-      <c r="Q100" s="4"/>
-    </row>
-    <row r="101" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="101" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>5</v>
       </c>
@@ -4621,10 +4223,8 @@
         <v>184</v>
       </c>
       <c r="O101" s="3"/>
-      <c r="P101" s="4"/>
-      <c r="Q101" s="4"/>
-    </row>
-    <row r="102" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="102" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
         <v>5</v>
       </c>
@@ -4652,10 +4252,8 @@
         <v>183</v>
       </c>
       <c r="O102" s="3"/>
-      <c r="P102" s="4"/>
-      <c r="Q102" s="4"/>
-    </row>
-    <row r="103" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="103" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
         <v>5</v>
       </c>
@@ -4685,10 +4283,8 @@
         <v>184</v>
       </c>
       <c r="O103" s="3"/>
-      <c r="P103" s="4"/>
-      <c r="Q103" s="4"/>
-    </row>
-    <row r="104" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="104" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
         <v>5</v>
       </c>
@@ -4720,10 +4316,8 @@
         <v>184</v>
       </c>
       <c r="O104" s="3"/>
-      <c r="P104" s="4"/>
-      <c r="Q104" s="4"/>
-    </row>
-    <row r="105" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="105" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
         <v>5</v>
       </c>
@@ -4759,14 +4353,8 @@
       <c r="O105" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="P105" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="Q105" s="4" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="106" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="106" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
         <v>5</v>
       </c>
@@ -4798,10 +4386,8 @@
         <v>184</v>
       </c>
       <c r="O106" s="3"/>
-      <c r="P106" s="4"/>
-      <c r="Q106" s="4"/>
-    </row>
-    <row r="107" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="107" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
         <v>5</v>
       </c>
@@ -4829,10 +4415,8 @@
         <v>183</v>
       </c>
       <c r="O107" s="3"/>
-      <c r="P107" s="4"/>
-      <c r="Q107" s="4"/>
-    </row>
-    <row r="108" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="108" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
         <v>42</v>
       </c>
@@ -4855,10 +4439,8 @@
         <v>183</v>
       </c>
       <c r="O108" s="3"/>
-      <c r="P108" s="4"/>
-      <c r="Q108" s="4"/>
-    </row>
-    <row r="109" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="109" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
         <v>45</v>
       </c>
@@ -4891,10 +4473,8 @@
       <c r="O109" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="P109" s="4"/>
-      <c r="Q109" s="4"/>
-    </row>
-    <row r="110" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="110" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
         <v>48</v>
       </c>
@@ -4925,10 +4505,8 @@
       <c r="O110" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="P110" s="4"/>
-      <c r="Q110" s="4"/>
-    </row>
-    <row r="111" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="111" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
         <v>48</v>
       </c>
@@ -4953,10 +4531,8 @@
         <v>183</v>
       </c>
       <c r="O111" s="3"/>
-      <c r="P111" s="4"/>
-      <c r="Q111" s="4"/>
-    </row>
-    <row r="112" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="112" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
         <v>52</v>
       </c>
@@ -4981,10 +4557,8 @@
         <v>183</v>
       </c>
       <c r="O112" s="3"/>
-      <c r="P112" s="4"/>
-      <c r="Q112" s="4"/>
-    </row>
-    <row r="113" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="113" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
         <v>52</v>
       </c>
@@ -5009,10 +4583,8 @@
         <v>183</v>
       </c>
       <c r="O113" s="3"/>
-      <c r="P113" s="4"/>
-      <c r="Q113" s="4"/>
-    </row>
-    <row r="114" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="114" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
         <v>52</v>
       </c>
@@ -5037,10 +4609,8 @@
         <v>183</v>
       </c>
       <c r="O114" s="3"/>
-      <c r="P114" s="4"/>
-      <c r="Q114" s="4"/>
-    </row>
-    <row r="115" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="115" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
         <v>52</v>
       </c>
@@ -5071,10 +4641,8 @@
       <c r="O115" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="P115" s="4"/>
-      <c r="Q115" s="4"/>
-    </row>
-    <row r="116" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="116" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
         <v>52</v>
       </c>
@@ -5106,10 +4674,8 @@
       <c r="O116" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="P116" s="4"/>
-      <c r="Q116" s="4"/>
-    </row>
-    <row r="117" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="117" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
         <v>52</v>
       </c>
@@ -5133,10 +4699,8 @@
         <v>183</v>
       </c>
       <c r="O117" s="3"/>
-      <c r="P117" s="4"/>
-      <c r="Q117" s="4"/>
-    </row>
-    <row r="118" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="118" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
         <v>52</v>
       </c>
@@ -5168,10 +4732,8 @@
       <c r="O118" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="P118" s="4"/>
-      <c r="Q118" s="4"/>
-    </row>
-    <row r="119" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="119" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
         <v>52</v>
       </c>
@@ -5203,10 +4765,8 @@
       <c r="O119" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="P119" s="4"/>
-      <c r="Q119" s="4"/>
-    </row>
-    <row r="120" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="120" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
         <v>52</v>
       </c>
@@ -5230,10 +4790,8 @@
         <v>183</v>
       </c>
       <c r="O120" s="3"/>
-      <c r="P120" s="4"/>
-      <c r="Q120" s="4"/>
-    </row>
-    <row r="121" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="121" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
         <v>52</v>
       </c>
@@ -5265,10 +4823,8 @@
       <c r="O121" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="P121" s="4"/>
-      <c r="Q121" s="4"/>
-    </row>
-    <row r="122" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="122" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
         <v>52</v>
       </c>
@@ -5292,10 +4848,8 @@
         <v>183</v>
       </c>
       <c r="O122" s="3"/>
-      <c r="P122" s="4"/>
-      <c r="Q122" s="4"/>
-    </row>
-    <row r="123" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="123" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
         <v>52</v>
       </c>
@@ -5319,10 +4873,8 @@
         <v>183</v>
       </c>
       <c r="O123" s="3"/>
-      <c r="P123" s="4"/>
-      <c r="Q123" s="4"/>
-    </row>
-    <row r="124" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="124" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
         <v>52</v>
       </c>
@@ -5346,10 +4898,8 @@
         <v>183</v>
       </c>
       <c r="O124" s="3"/>
-      <c r="P124" s="4"/>
-      <c r="Q124" s="4"/>
-    </row>
-    <row r="125" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="125" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
         <v>52</v>
       </c>
@@ -5373,10 +4923,8 @@
         <v>183</v>
       </c>
       <c r="O125" s="3"/>
-      <c r="P125" s="4"/>
-      <c r="Q125" s="4"/>
-    </row>
-    <row r="126" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="126" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
         <v>52</v>
       </c>
@@ -5408,8 +4956,6 @@
       <c r="O126" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="P126" s="4"/>
-      <c r="Q126" s="4"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:O126" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
